--- a/dataframe/score_data.xlsx
+++ b/dataframe/score_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21037" windowHeight="8265"/>
+    <workbookView windowWidth="10237" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,13 +46,13 @@
     <t>ウエストサイドストーリー(81473)</t>
   </si>
   <si>
-    <t>テリファー(74170)</t>
-  </si>
-  <si>
-    <t>レプリカズ(76720)</t>
-  </si>
-  <si>
-    <t>デイシフト(100107)</t>
+    <t>マリグナント（88639)</t>
+  </si>
+  <si>
+    <t>イコライザー（56537）</t>
+  </si>
+  <si>
+    <t>グレムリン（11304）</t>
   </si>
   <si>
     <t>孤狼の血（72802)</t>
@@ -96,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -117,11 +117,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,124 +246,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -270,6 +270,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,96 +444,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -379,78 +451,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,6 +481,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -491,8 +502,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,26 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -558,6 +549,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,145 +584,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,7 +1055,9 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="12.75"/>
@@ -1071,8 +1073,8 @@
     <col min="9" max="9" width="15.8053097345133" customWidth="1"/>
     <col min="10" max="10" width="23.8318584070796" customWidth="1"/>
     <col min="11" max="11" width="30.7610619469027" customWidth="1"/>
-    <col min="12" max="12" width="17.3451327433628" customWidth="1"/>
-    <col min="13" max="13" width="17.6106194690265" customWidth="1"/>
+    <col min="12" max="12" width="19.6548672566372" customWidth="1"/>
+    <col min="13" max="13" width="20.5221238938053" customWidth="1"/>
     <col min="14" max="14" width="18.3982300884956" customWidth="1"/>
     <col min="15" max="15" width="18.0619469026549" customWidth="1"/>
     <col min="16" max="16" width="23.3805309734513" customWidth="1"/>
@@ -1160,13 +1162,13 @@
         <v>4.1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1210,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>3.5</v>
@@ -1260,7 +1262,7 @@
         <v>3.3</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1310,13 +1312,13 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>2.7</v>
@@ -1360,13 +1362,13 @@
         <v>4</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>2.5</v>
@@ -1463,10 +1465,10 @@
         <v>3.5</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1516,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1563,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1610,13 +1612,13 @@
         <v>4.2</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N11">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O11">
         <v>3.5</v>
